--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Boc</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H2">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I2">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J2">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28510235248664</v>
+        <v>2.2861555</v>
       </c>
       <c r="N2">
-        <v>2.28510235248664</v>
+        <v>4.572311</v>
       </c>
       <c r="O2">
-        <v>0.1130574426516246</v>
+        <v>0.1031960088701605</v>
       </c>
       <c r="P2">
-        <v>0.1130574426516246</v>
+        <v>0.07798749924269259</v>
       </c>
       <c r="Q2">
-        <v>12.53026841003714</v>
+        <v>12.67570233444725</v>
       </c>
       <c r="R2">
-        <v>12.53026841003714</v>
+        <v>50.70280933778901</v>
       </c>
       <c r="S2">
-        <v>0.05913207619268361</v>
+        <v>0.049529134514973</v>
       </c>
       <c r="T2">
-        <v>0.05913207619268361</v>
+        <v>0.03180818687881477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H3">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I3">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J3">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2335989823362</v>
+        <v>12.16119766666667</v>
       </c>
       <c r="N3">
-        <v>11.2335989823362</v>
+        <v>36.483593</v>
       </c>
       <c r="O3">
-        <v>0.5557921601781944</v>
+        <v>0.5489508750743806</v>
       </c>
       <c r="P3">
-        <v>0.5557921601781944</v>
+        <v>0.6222814199336407</v>
       </c>
       <c r="Q3">
-        <v>61.59899590765293</v>
+        <v>67.42836244211783</v>
       </c>
       <c r="R3">
-        <v>61.59899590765293</v>
+        <v>404.570174652707</v>
       </c>
       <c r="S3">
-        <v>0.2906942134205522</v>
+        <v>0.2634700898934955</v>
       </c>
       <c r="T3">
-        <v>0.2906942134205522</v>
+        <v>0.2538053391719457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H4">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I4">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J4">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.98242255129253</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N4">
-        <v>1.98242255129253</v>
+        <v>0.145217</v>
       </c>
       <c r="O4">
-        <v>0.09808209407344388</v>
+        <v>0.002185009552805732</v>
       </c>
       <c r="P4">
-        <v>0.09808209407344388</v>
+        <v>0.002476889843566216</v>
       </c>
       <c r="Q4">
-        <v>10.87053568641024</v>
+        <v>0.2683876149138334</v>
       </c>
       <c r="R4">
-        <v>10.87053568641024</v>
+        <v>1.610325689483</v>
       </c>
       <c r="S4">
-        <v>0.05129956705071025</v>
+        <v>0.00104869978250398</v>
       </c>
       <c r="T4">
-        <v>0.05129956705071025</v>
+        <v>0.001010230816316048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H5">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I5">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J5">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.7107462826444</v>
+        <v>2.112112</v>
       </c>
       <c r="N5">
-        <v>4.7107462826444</v>
+        <v>6.336335999999999</v>
       </c>
       <c r="O5">
-        <v>0.233068303096737</v>
+        <v>0.09533976524640268</v>
       </c>
       <c r="P5">
-        <v>0.233068303096737</v>
+        <v>0.1080755440741992</v>
       </c>
       <c r="Q5">
-        <v>25.83119100502703</v>
+        <v>11.710709533544</v>
       </c>
       <c r="R5">
-        <v>25.83119100502703</v>
+        <v>70.264257201264</v>
       </c>
       <c r="S5">
-        <v>0.1219009764733758</v>
+        <v>0.04575851439619424</v>
       </c>
       <c r="T5">
-        <v>0.1219009764733758</v>
+        <v>0.04407997610288574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.07661518113532</v>
+        <v>5.5445495</v>
       </c>
       <c r="H6">
-        <v>3.07661518113532</v>
+        <v>11.089099</v>
       </c>
       <c r="I6">
-        <v>0.2934556207752901</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J6">
-        <v>0.2934556207752901</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28510235248664</v>
+        <v>5.545655500000001</v>
       </c>
       <c r="N6">
-        <v>2.28510235248664</v>
+        <v>11.091311</v>
       </c>
       <c r="O6">
-        <v>0.1130574426516246</v>
+        <v>0.2503283412562506</v>
       </c>
       <c r="P6">
-        <v>0.1130574426516246</v>
+        <v>0.1891786469059012</v>
       </c>
       <c r="Q6">
-        <v>7.03038058810843</v>
+        <v>30.74816142969726</v>
       </c>
       <c r="R6">
-        <v>7.03038058810843</v>
+        <v>122.992645718789</v>
       </c>
       <c r="S6">
-        <v>0.03317734201659926</v>
+        <v>0.1201455969347666</v>
       </c>
       <c r="T6">
-        <v>0.03317734201659926</v>
+        <v>0.07715890126875749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H7">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I7">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J7">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.2335989823362</v>
+        <v>2.2861555</v>
       </c>
       <c r="N7">
-        <v>11.2335989823362</v>
+        <v>4.572311</v>
       </c>
       <c r="O7">
-        <v>0.5557921601781944</v>
+        <v>0.1031960088701605</v>
       </c>
       <c r="P7">
-        <v>0.5557921601781944</v>
+        <v>0.07798749924269259</v>
       </c>
       <c r="Q7">
-        <v>34.56146116784183</v>
+        <v>0.3434148484325</v>
       </c>
       <c r="R7">
-        <v>34.56146116784183</v>
+        <v>2.060489090595</v>
       </c>
       <c r="S7">
-        <v>0.1631003333871315</v>
+        <v>0.001341861758320792</v>
       </c>
       <c r="T7">
-        <v>0.1631003333871315</v>
+        <v>0.001292638867774873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H8">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J8">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.98242255129253</v>
+        <v>12.16119766666667</v>
       </c>
       <c r="N8">
-        <v>1.98242255129253</v>
+        <v>36.483593</v>
       </c>
       <c r="O8">
-        <v>0.09808209407344388</v>
+        <v>0.5489508750743806</v>
       </c>
       <c r="P8">
-        <v>0.09808209407344388</v>
+        <v>0.6222814199336407</v>
       </c>
       <c r="Q8">
-        <v>6.09915131673161</v>
+        <v>1.826794307498333</v>
       </c>
       <c r="R8">
-        <v>6.09915131673161</v>
+        <v>16.441148767485</v>
       </c>
       <c r="S8">
-        <v>0.02878274180326288</v>
+        <v>0.007138029799057869</v>
       </c>
       <c r="T8">
-        <v>0.02878274180326288</v>
+        <v>0.01031428315962744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H9">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J9">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.7107462826444</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N9">
-        <v>4.7107462826444</v>
+        <v>0.145217</v>
       </c>
       <c r="O9">
-        <v>0.233068303096737</v>
+        <v>0.002185009552805732</v>
       </c>
       <c r="P9">
-        <v>0.233068303096737</v>
+        <v>0.002476889843566216</v>
       </c>
       <c r="Q9">
-        <v>14.49315352766054</v>
+        <v>0.007271257218333334</v>
       </c>
       <c r="R9">
-        <v>14.49315352766054</v>
+        <v>0.065441314965</v>
       </c>
       <c r="S9">
-        <v>0.06839520356829643</v>
+        <v>2.841176507285855E-05</v>
       </c>
       <c r="T9">
-        <v>0.06839520356829643</v>
+        <v>4.105432427095701E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.92401449597554</v>
+        <v>0.150215</v>
       </c>
       <c r="H10">
-        <v>1.92401449597554</v>
+        <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.1835175460873881</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J10">
-        <v>0.1835175460873881</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.28510235248664</v>
+        <v>2.112112</v>
       </c>
       <c r="N10">
-        <v>2.28510235248664</v>
+        <v>6.336335999999999</v>
       </c>
       <c r="O10">
-        <v>0.1130574426516246</v>
+        <v>0.09533976524640268</v>
       </c>
       <c r="P10">
-        <v>0.1130574426516246</v>
+        <v>0.1080755440741992</v>
       </c>
       <c r="Q10">
-        <v>4.396570050972104</v>
+        <v>0.3172709040799999</v>
       </c>
       <c r="R10">
-        <v>4.396570050972104</v>
+        <v>2.855438136719999</v>
       </c>
       <c r="S10">
-        <v>0.02074802444234176</v>
+        <v>0.001239706713777975</v>
       </c>
       <c r="T10">
-        <v>0.02074802444234176</v>
+        <v>0.001791346693801267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.92401449597554</v>
+        <v>0.150215</v>
       </c>
       <c r="H11">
-        <v>1.92401449597554</v>
+        <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.1835175460873881</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J11">
-        <v>0.1835175460873881</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.2335989823362</v>
+        <v>5.545655500000001</v>
       </c>
       <c r="N11">
-        <v>11.2335989823362</v>
+        <v>11.091311</v>
       </c>
       <c r="O11">
-        <v>0.5557921601781944</v>
+        <v>0.2503283412562506</v>
       </c>
       <c r="P11">
-        <v>0.5557921601781944</v>
+        <v>0.1891786469059012</v>
       </c>
       <c r="Q11">
-        <v>21.61360728399092</v>
+        <v>0.8330406409325</v>
       </c>
       <c r="R11">
-        <v>21.61360728399092</v>
+        <v>4.998243845595</v>
       </c>
       <c r="S11">
-        <v>0.1019976133705108</v>
+        <v>0.003255029257752314</v>
       </c>
       <c r="T11">
-        <v>0.1019976133705108</v>
+        <v>0.003135626533973519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H12">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I12">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J12">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98242255129253</v>
+        <v>2.2861555</v>
       </c>
       <c r="N12">
-        <v>1.98242255129253</v>
+        <v>4.572311</v>
       </c>
       <c r="O12">
-        <v>0.09808209407344388</v>
+        <v>0.1031960088701605</v>
       </c>
       <c r="P12">
-        <v>0.09808209407344388</v>
+        <v>0.07798749924269259</v>
       </c>
       <c r="Q12">
-        <v>3.814209725835641</v>
+        <v>0.5181807676818333</v>
       </c>
       <c r="R12">
-        <v>3.814209725835641</v>
+        <v>3.109084606091</v>
       </c>
       <c r="S12">
-        <v>0.01799978521947077</v>
+        <v>0.002024743423947299</v>
       </c>
       <c r="T12">
-        <v>0.01799978521947077</v>
+        <v>0.001950470702988885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,1177 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J13">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.16119766666667</v>
+      </c>
+      <c r="N13">
+        <v>36.483593</v>
+      </c>
+      <c r="O13">
+        <v>0.5489508750743806</v>
+      </c>
+      <c r="P13">
+        <v>0.6222814199336407</v>
+      </c>
+      <c r="Q13">
+        <v>2.756461116859222</v>
+      </c>
+      <c r="R13">
+        <v>24.808150051733</v>
+      </c>
+      <c r="S13">
+        <v>0.01077061687313333</v>
+      </c>
+      <c r="T13">
+        <v>0.01556328501851041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J14">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04840566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.145217</v>
+      </c>
+      <c r="O14">
+        <v>0.002185009552805732</v>
+      </c>
+      <c r="P14">
+        <v>0.002476889843566216</v>
+      </c>
+      <c r="Q14">
+        <v>0.01097164454188889</v>
+      </c>
+      <c r="R14">
+        <v>0.09874480087699999</v>
+      </c>
+      <c r="S14">
+        <v>4.287068629632512E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.194712128635538E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J15">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.112112</v>
+      </c>
+      <c r="N15">
+        <v>6.336335999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.09533976524640268</v>
+      </c>
+      <c r="P15">
+        <v>0.1080755440741992</v>
+      </c>
+      <c r="Q15">
+        <v>0.4787320099573333</v>
+      </c>
+      <c r="R15">
+        <v>4.308588089615999</v>
+      </c>
+      <c r="S15">
+        <v>0.001870601051695817</v>
+      </c>
+      <c r="T15">
+        <v>0.002702973995490197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="H13">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="I13">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="J13">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.7107462826444</v>
-      </c>
-      <c r="N13">
-        <v>4.7107462826444</v>
-      </c>
-      <c r="O13">
-        <v>0.233068303096737</v>
-      </c>
-      <c r="P13">
-        <v>0.233068303096737</v>
-      </c>
-      <c r="Q13">
-        <v>9.063544134670714</v>
-      </c>
-      <c r="R13">
-        <v>9.063544134670714</v>
-      </c>
-      <c r="S13">
-        <v>0.04277212305506478</v>
-      </c>
-      <c r="T13">
-        <v>0.04277212305506478</v>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J16">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.545655500000001</v>
+      </c>
+      <c r="N16">
+        <v>11.091311</v>
+      </c>
+      <c r="O16">
+        <v>0.2503283412562506</v>
+      </c>
+      <c r="P16">
+        <v>0.1891786469059012</v>
+      </c>
+      <c r="Q16">
+        <v>1.256980124181833</v>
+      </c>
+      <c r="R16">
+        <v>7.541880745091</v>
+      </c>
+      <c r="S16">
+        <v>0.004911533579016024</v>
+      </c>
+      <c r="T16">
+        <v>0.004731366077950155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.450882</v>
+      </c>
+      <c r="I17">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J17">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.2861555</v>
+      </c>
+      <c r="N17">
+        <v>4.572311</v>
+      </c>
+      <c r="O17">
+        <v>0.1031960088701605</v>
+      </c>
+      <c r="P17">
+        <v>0.07798749924269259</v>
+      </c>
+      <c r="Q17">
+        <v>1.105647288050333</v>
+      </c>
+      <c r="R17">
+        <v>6.633883728302</v>
+      </c>
+      <c r="S17">
+        <v>0.004320214518381403</v>
+      </c>
+      <c r="T17">
+        <v>0.004161738099290891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.450882</v>
+      </c>
+      <c r="I18">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J18">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.16119766666667</v>
+      </c>
+      <c r="N18">
+        <v>36.483593</v>
+      </c>
+      <c r="O18">
+        <v>0.5489508750743806</v>
+      </c>
+      <c r="P18">
+        <v>0.6222814199336407</v>
+      </c>
+      <c r="Q18">
+        <v>5.881487597669556</v>
+      </c>
+      <c r="R18">
+        <v>52.933388379026</v>
+      </c>
+      <c r="S18">
+        <v>0.02298136881784261</v>
+      </c>
+      <c r="T18">
+        <v>0.03320753093722681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.450882</v>
+      </c>
+      <c r="I19">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J19">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04840566666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.145217</v>
+      </c>
+      <c r="O19">
+        <v>0.002185009552805732</v>
+      </c>
+      <c r="P19">
+        <v>0.002476889843566216</v>
+      </c>
+      <c r="Q19">
+        <v>0.02341030348822223</v>
+      </c>
+      <c r="R19">
+        <v>0.210692731394</v>
+      </c>
+      <c r="S19">
+        <v>9.147359569603384E-05</v>
+      </c>
+      <c r="T19">
+        <v>0.0001321771685182231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.450882</v>
+      </c>
+      <c r="I20">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J20">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.112112</v>
+      </c>
+      <c r="N20">
+        <v>6.336335999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.09533976524640268</v>
+      </c>
+      <c r="P20">
+        <v>0.1080755440741992</v>
+      </c>
+      <c r="Q20">
+        <v>1.021475094261333</v>
+      </c>
+      <c r="R20">
+        <v>9.193275848351998</v>
+      </c>
+      <c r="S20">
+        <v>0.003991319456112054</v>
+      </c>
+      <c r="T20">
+        <v>0.005767361612346239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.450882</v>
+      </c>
+      <c r="I21">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J21">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.545655500000001</v>
+      </c>
+      <c r="N21">
+        <v>11.091311</v>
+      </c>
+      <c r="O21">
+        <v>0.2503283412562506</v>
+      </c>
+      <c r="P21">
+        <v>0.1891786469059012</v>
+      </c>
+      <c r="Q21">
+        <v>2.682030581050334</v>
+      </c>
+      <c r="R21">
+        <v>16.092183486302</v>
+      </c>
+      <c r="S21">
+        <v>0.01047978643842979</v>
+      </c>
+      <c r="T21">
+        <v>0.0100953613084902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.223217</v>
+      </c>
+      <c r="H22">
+        <v>9.669651</v>
+      </c>
+      <c r="I22">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J22">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.2861555</v>
+      </c>
+      <c r="N22">
+        <v>4.572311</v>
+      </c>
+      <c r="O22">
+        <v>0.1031960088701605</v>
+      </c>
+      <c r="P22">
+        <v>0.07798749924269259</v>
+      </c>
+      <c r="Q22">
+        <v>7.3687752722435</v>
+      </c>
+      <c r="R22">
+        <v>44.212651633461</v>
+      </c>
+      <c r="S22">
+        <v>0.02879280784921259</v>
+      </c>
+      <c r="T22">
+        <v>0.02773661467545001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.223217</v>
+      </c>
+      <c r="H23">
+        <v>9.669651</v>
+      </c>
+      <c r="I23">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J23">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.16119766666667</v>
+      </c>
+      <c r="N23">
+        <v>36.483593</v>
+      </c>
+      <c r="O23">
+        <v>0.5489508750743806</v>
+      </c>
+      <c r="P23">
+        <v>0.6222814199336407</v>
+      </c>
+      <c r="Q23">
+        <v>39.19817905956033</v>
+      </c>
+      <c r="R23">
+        <v>352.783611536043</v>
+      </c>
+      <c r="S23">
+        <v>0.1531632592938782</v>
+      </c>
+      <c r="T23">
+        <v>0.2213172640743259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.223217</v>
+      </c>
+      <c r="H24">
+        <v>9.669651</v>
+      </c>
+      <c r="I24">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J24">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04840566666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.145217</v>
+      </c>
+      <c r="O24">
+        <v>0.002185009552805732</v>
+      </c>
+      <c r="P24">
+        <v>0.002476889843566216</v>
+      </c>
+      <c r="Q24">
+        <v>0.1560219676963334</v>
+      </c>
+      <c r="R24">
+        <v>1.404197709267</v>
+      </c>
+      <c r="S24">
+        <v>0.0006096414085333951</v>
+      </c>
+      <c r="T24">
+        <v>0.0008809173245924926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.223217</v>
+      </c>
+      <c r="H25">
+        <v>9.669651</v>
+      </c>
+      <c r="I25">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J25">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.112112</v>
+      </c>
+      <c r="N25">
+        <v>6.336335999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.09533976524640268</v>
+      </c>
+      <c r="P25">
+        <v>0.1080755440741992</v>
+      </c>
+      <c r="Q25">
+        <v>6.807795304303999</v>
+      </c>
+      <c r="R25">
+        <v>61.270157738736</v>
+      </c>
+      <c r="S25">
+        <v>0.02660083050869291</v>
+      </c>
+      <c r="T25">
+        <v>0.03843756692976095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.223217</v>
+      </c>
+      <c r="H26">
+        <v>9.669651</v>
+      </c>
+      <c r="I26">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J26">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.545655500000001</v>
+      </c>
+      <c r="N26">
+        <v>11.091311</v>
+      </c>
+      <c r="O26">
+        <v>0.2503283412562506</v>
+      </c>
+      <c r="P26">
+        <v>0.1891786469059012</v>
+      </c>
+      <c r="Q26">
+        <v>17.8748510837435</v>
+      </c>
+      <c r="R26">
+        <v>107.249106502461</v>
+      </c>
+      <c r="S26">
+        <v>0.06984432739130342</v>
+      </c>
+      <c r="T26">
+        <v>0.06728226042641897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.92403</v>
+      </c>
+      <c r="H27">
+        <v>3.84806</v>
+      </c>
+      <c r="I27">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J27">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.2861555</v>
+      </c>
+      <c r="N27">
+        <v>4.572311</v>
+      </c>
+      <c r="O27">
+        <v>0.1031960088701605</v>
+      </c>
+      <c r="P27">
+        <v>0.07798749924269259</v>
+      </c>
+      <c r="Q27">
+        <v>4.398631766665</v>
+      </c>
+      <c r="R27">
+        <v>17.59452706666</v>
+      </c>
+      <c r="S27">
+        <v>0.01718724680532539</v>
+      </c>
+      <c r="T27">
+        <v>0.01103785001837317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.92403</v>
+      </c>
+      <c r="H28">
+        <v>3.84806</v>
+      </c>
+      <c r="I28">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J28">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12.16119766666667</v>
+      </c>
+      <c r="N28">
+        <v>36.483593</v>
+      </c>
+      <c r="O28">
+        <v>0.5489508750743806</v>
+      </c>
+      <c r="P28">
+        <v>0.6222814199336407</v>
+      </c>
+      <c r="Q28">
+        <v>23.39850914659667</v>
+      </c>
+      <c r="R28">
+        <v>140.39105487958</v>
+      </c>
+      <c r="S28">
+        <v>0.0914275103969731</v>
+      </c>
+      <c r="T28">
+        <v>0.08807371757200448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.92403</v>
+      </c>
+      <c r="H29">
+        <v>3.84806</v>
+      </c>
+      <c r="I29">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J29">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04840566666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.145217</v>
+      </c>
+      <c r="O29">
+        <v>0.002185009552805732</v>
+      </c>
+      <c r="P29">
+        <v>0.002476889843566216</v>
+      </c>
+      <c r="Q29">
+        <v>0.09313395483666669</v>
+      </c>
+      <c r="R29">
+        <v>0.5588037290200001</v>
+      </c>
+      <c r="S29">
+        <v>0.0003639123147031392</v>
+      </c>
+      <c r="T29">
+        <v>0.0003505630885821409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.92403</v>
+      </c>
+      <c r="H30">
+        <v>3.84806</v>
+      </c>
+      <c r="I30">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J30">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.112112</v>
+      </c>
+      <c r="N30">
+        <v>6.336335999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.09533976524640268</v>
+      </c>
+      <c r="P30">
+        <v>0.1080755440741992</v>
+      </c>
+      <c r="Q30">
+        <v>4.06376685136</v>
+      </c>
+      <c r="R30">
+        <v>24.38260110816</v>
+      </c>
+      <c r="S30">
+        <v>0.01587879311992969</v>
+      </c>
+      <c r="T30">
+        <v>0.0152963187399148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.92403</v>
+      </c>
+      <c r="H31">
+        <v>3.84806</v>
+      </c>
+      <c r="I31">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J31">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.545655500000001</v>
+      </c>
+      <c r="N31">
+        <v>11.091311</v>
+      </c>
+      <c r="O31">
+        <v>0.2503283412562506</v>
+      </c>
+      <c r="P31">
+        <v>0.1891786469059012</v>
+      </c>
+      <c r="Q31">
+        <v>10.670007551665</v>
+      </c>
+      <c r="R31">
+        <v>42.68003020666001</v>
+      </c>
+      <c r="S31">
+        <v>0.04169206765498243</v>
+      </c>
+      <c r="T31">
+        <v>0.02677513129031087</v>
       </c>
     </row>
   </sheetData>
